--- a/Workshop-1-1-Download-Install/LABSheet.xlsx
+++ b/Workshop-1-1-Download-Install/LABSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praparnlueangphoonlap/Work/Docker_Training/docker_workshop_112018/Workshop-2-4-Swarm/LAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praparnlueangphoonlap/Work/Docker_Training/docker-workshop-112018-cloud/Workshop-1-1-Download-Install/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19520" yWindow="3440" windowWidth="25600" windowHeight="10640" tabRatio="500"/>
+    <workbookView xWindow="3680" yWindow="3840" windowWidth="35720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -65,30 +65,15 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>10.0.1.104</t>
-  </si>
-  <si>
     <t>ubuntu</t>
   </si>
   <si>
     <t>Public IP Address</t>
   </si>
   <si>
-    <t>13.229.98.3</t>
-  </si>
-  <si>
-    <t>10.0.1.163</t>
-  </si>
-  <si>
     <t>ssh connect string</t>
   </si>
   <si>
-    <t>18.136.196.130</t>
-  </si>
-  <si>
-    <t>10.0.1.62</t>
-  </si>
-  <si>
     <t>Machine Name</t>
   </si>
   <si>
@@ -164,32 +149,59 @@
     <t>Training_DockerZerotoHero_StudentG7_3</t>
   </si>
   <si>
-    <t>ssh -i "docker_lab" ubuntu@18.136.196.130</t>
-  </si>
-  <si>
-    <t>ssh -i "k8s_lab" ubuntu@13.229.98.3</t>
-  </si>
-  <si>
-    <t>ssh -i "k8s_lab" ubuntu@18.136.196.130</t>
-  </si>
-  <si>
     <t>Worker1</t>
   </si>
   <si>
     <t>Worker2</t>
   </si>
   <si>
-    <t>13.229.224.202</t>
-  </si>
-  <si>
-    <t>ssh -i "k8s_lab" ubuntu@13.229.224.202</t>
+    <t>10.0.1.182</t>
+  </si>
+  <si>
+    <t>Training-DockerZerotoHero-Registry</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>52.77.221.37</t>
+  </si>
+  <si>
+    <t>ssh -i "docker_lab" ubuntu@</t>
+  </si>
+  <si>
+    <t>18.136.124.121</t>
+  </si>
+  <si>
+    <t>10.0.1.239</t>
+  </si>
+  <si>
+    <t>10.0.1.16</t>
+  </si>
+  <si>
+    <t>10.0.1.136</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG8_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG8_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG8_3</t>
+  </si>
+  <si>
+    <t>54.169.188.52</t>
+  </si>
+  <si>
+    <t>18.136.105.195</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,8 +238,15 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +268,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +338,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -600,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,11 +644,12 @@
     <col min="4" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -641,992 +672,1226 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="14" t="str">
+        <f>E2</f>
+        <v>52.77.221.37</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I47" si="0">E3</f>
+        <v>18.136.124.121</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18.136.105.195</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>54.169.188.52</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+        <v>46</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
       <c r="B18" s="5">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+        <v>46</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+        <v>46</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>8</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
       <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+        <v>46</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <v>9</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
       <c r="B30" s="5">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="5">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+        <v>46</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>10</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
       <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+        <v>46</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>11</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
       <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="5">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>13</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>13</v>
-      </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7">
-        <v>2</v>
+      <c r="B39" s="2">
+        <v>38</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
-      <c r="B40" s="7">
-        <v>3</v>
+      <c r="B40" s="2">
+        <v>39</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
-        <v>14</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1</v>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2">
+        <v>40</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="7" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="7">
-        <v>2</v>
+    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>14</v>
+      </c>
+      <c r="B42" s="5">
+        <v>41</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
-      <c r="B43" s="7">
-        <v>3</v>
+      <c r="B43" s="5">
+        <v>42</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
+    <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>0</v>
+      </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I46" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Workshop-1-1-Download-Install/LABSheet.xlsx
+++ b/Workshop-1-1-Download-Install/LABSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="3840" windowWidth="35720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="23160" yWindow="1620" windowWidth="35720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,18 +170,6 @@
     <t>ssh -i "docker_lab" ubuntu@</t>
   </si>
   <si>
-    <t>18.136.124.121</t>
-  </si>
-  <si>
-    <t>10.0.1.239</t>
-  </si>
-  <si>
-    <t>10.0.1.16</t>
-  </si>
-  <si>
-    <t>10.0.1.136</t>
-  </si>
-  <si>
     <t>Training_DockerZerotoHero_StudentG8_1</t>
   </si>
   <si>
@@ -191,10 +179,22 @@
     <t>Training_DockerZerotoHero_StudentG8_3</t>
   </si>
   <si>
-    <t>54.169.188.52</t>
-  </si>
-  <si>
-    <t>18.136.105.195</t>
+    <t>13.250.98.222</t>
+  </si>
+  <si>
+    <t>10.0.1.31</t>
+  </si>
+  <si>
+    <t>13.250.112.159</t>
+  </si>
+  <si>
+    <t>10.0.1.61</t>
+  </si>
+  <si>
+    <t>52.221.207.92</t>
+  </si>
+  <si>
+    <t>10.0.1.172</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +719,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I47" si="0">E3</f>
-        <v>18.136.124.121</v>
+        <v>13.250.98.222</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -748,10 +748,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>40</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>18.136.105.195</v>
+        <v>13.250.112.159</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -777,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>54</v>
@@ -793,7 +793,7 @@
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>54.169.188.52</v>
+        <v>52.221.207.92</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1344,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1369,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1394,7 +1394,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/Workshop-1-1-Download-Install/LABSheet.xlsx
+++ b/Workshop-1-1-Download-Install/LABSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="1620" windowWidth="35720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="1620" windowWidth="35720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -53,15 +53,6 @@
     <t>spare</t>
   </si>
   <si>
-    <t>g00-node1</t>
-  </si>
-  <si>
-    <t>g00-node2</t>
-  </si>
-  <si>
-    <t>g00-node3</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
@@ -155,18 +146,12 @@
     <t>Worker2</t>
   </si>
   <si>
-    <t>10.0.1.182</t>
-  </si>
-  <si>
     <t>Training-DockerZerotoHero-Registry</t>
   </si>
   <si>
     <t>Registry</t>
   </si>
   <si>
-    <t>52.77.221.37</t>
-  </si>
-  <si>
     <t>ssh -i "docker_lab" ubuntu@</t>
   </si>
   <si>
@@ -179,29 +164,47 @@
     <t>Training_DockerZerotoHero_StudentG8_3</t>
   </si>
   <si>
-    <t>13.250.98.222</t>
-  </si>
-  <si>
-    <t>10.0.1.31</t>
-  </si>
-  <si>
-    <t>13.250.112.159</t>
-  </si>
-  <si>
-    <t>10.0.1.61</t>
-  </si>
-  <si>
-    <t>52.221.207.92</t>
-  </si>
-  <si>
-    <t>10.0.1.172</t>
+    <t>Training_DockerZerotoHero_StudentG9_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG9_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG9_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,12 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -246,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,24 +335,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -630,17 +640,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -657,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -672,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
@@ -681,34 +691,30 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="14">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="14" t="str">
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="8">
         <f>E2</f>
-        <v>52.77.221.37</v>
-      </c>
-      <c r="J2" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
@@ -716,26 +722,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I47" si="0">E3</f>
-        <v>13.250.98.222</v>
+        <v>41</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I38" si="0">E3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -745,26 +747,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>13.250.112.159</v>
+        <v>41</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -774,26 +772,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>52.221.207.92</v>
+        <v>41</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -802,10 +796,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -813,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
@@ -827,21 +821,21 @@
     <row r="7" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
@@ -852,21 +846,21 @@
     <row r="8" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
@@ -879,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -890,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
@@ -904,21 +898,21 @@
     <row r="10" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
@@ -929,21 +923,21 @@
     <row r="11" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
@@ -956,10 +950,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -967,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
@@ -981,21 +975,21 @@
     <row r="13" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
@@ -1006,21 +1000,21 @@
     <row r="14" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
@@ -1033,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1044,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
@@ -1058,21 +1052,21 @@
     <row r="16" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
@@ -1083,21 +1077,21 @@
     <row r="17" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="0"/>
@@ -1110,10 +1104,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1121,10 +1115,10 @@
         <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
@@ -1135,21 +1129,21 @@
     <row r="19" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
@@ -1160,21 +1154,21 @@
     <row r="20" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
@@ -1187,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1198,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="0"/>
@@ -1212,21 +1206,21 @@
     <row r="22" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" si="0"/>
@@ -1237,21 +1231,21 @@
     <row r="23" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" si="0"/>
@@ -1264,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1275,10 +1269,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="0"/>
@@ -1289,21 +1283,21 @@
     <row r="25" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="0"/>
@@ -1314,21 +1308,21 @@
     <row r="26" spans="1:10" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
@@ -1341,10 +1335,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1352,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
@@ -1366,21 +1360,21 @@
     <row r="28" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
@@ -1391,21 +1385,21 @@
     <row r="29" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" si="0"/>
@@ -1418,10 +1412,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="5">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1429,10 +1423,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
@@ -1443,21 +1437,21 @@
     <row r="31" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="0"/>
@@ -1468,21 +1462,21 @@
     <row r="32" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="5">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
@@ -1495,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1506,10 +1500,10 @@
         <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
@@ -1520,21 +1514,21 @@
     <row r="34" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
@@ -1545,21 +1539,21 @@
     <row r="35" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
@@ -1572,10 +1566,10 @@
         <v>11</v>
       </c>
       <c r="B36" s="5">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1583,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="0"/>
@@ -1597,21 +1591,21 @@
     <row r="37" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="5">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="0"/>
@@ -1622,268 +1616,195 @@
     <row r="38" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="5">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <v>12</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="B39" s="2">
+        <v>34</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" ref="I39:I44" si="1">E39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="2">
+        <v>35</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="2">
+        <v>36</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
         <v>13</v>
       </c>
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7" t="s">
+      <c r="B42" s="13">
+        <v>37</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>14</v>
-      </c>
-      <c r="B42" s="5">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="0"/>
+      <c r="G42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="5">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="0"/>
+    <row r="43" spans="1:10" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13">
+        <v>38</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="5">
-        <v>43</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="7">
-        <f t="shared" si="0"/>
+    <row r="44" spans="1:10" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13">
+        <v>39</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="2">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="2">
-        <v>46</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A12:A14"/>
@@ -1892,6 +1813,7 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
